--- a/Sprint#5/pruebas individuales Stacy/Log_pruebas_individuales_RF-46.xlsx
+++ b/Sprint#5/pruebas individuales Stacy/Log_pruebas_individuales_RF-46.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Oscar\Documents\GitHub\SIGAB\SIGAB\Sprint#5\pruebas individuales Oscar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STACY\Documents\GitHub\SIGAB\Sprint#5\pruebas individuales Stacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4076775E-77E2-4A3F-AF60-EF398D4B1134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF 34" sheetId="1" r:id="rId1"/>
@@ -26,26 +27,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -53,12 +45,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -737,13 +729,13 @@
     <t>Reporte anual del involucramiento del personal</t>
   </si>
   <si>
-    <t>Oscar Alvarado Gutiérrez</t>
+    <t>Stacy Gonzalez Santamaria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -998,7 +990,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1023,55 +1015,38 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>192569</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7E3BDE3-F723-40DB-9011-67A4D41D0A2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4124E044-E1FD-4E5E-838B-0ED92CF78F84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11715750" cy="8648700"/>
+          <a:ext cx="8117369" cy="4032601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1389,22 +1364,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="62.140625" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1389,7 @@
       <c r="E1" s="33"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
@@ -1424,7 +1399,7 @@
       <c r="E2" s="33"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1438,19 +1413,19 @@
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1439,7 @@
       <c r="E5" s="34"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1451,7 @@
       <c r="E6" s="34"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -1488,14 +1463,14 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
         <v>8</v>
       </c>
@@ -1503,7 +1478,7 @@
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1520,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1529,7 +1504,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1538,7 +1513,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="239.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1548,14 +1523,14 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
@@ -1563,39 +1538,39 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
@@ -1615,16 +1590,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AI6"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="195" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>401500844</v>
       </c>
@@ -1828,7 +1803,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>107090236</v>
       </c>
@@ -1921,7 +1896,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>204770946</v>
       </c>
@@ -2018,7 +1993,7 @@
       <c r="AH4" s="17"/>
       <c r="AI4" s="17"/>
     </row>
-    <row r="5" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>110770945</v>
       </c>
@@ -2113,7 +2088,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>108450068</v>
       </c>
@@ -2204,16 +2179,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="F4" r:id="rId5"/>
-    <hyperlink ref="G4" r:id="rId6"/>
-    <hyperlink ref="F5" r:id="rId7"/>
-    <hyperlink ref="G5" r:id="rId8"/>
-    <hyperlink ref="F6" r:id="rId9"/>
-    <hyperlink ref="G6" r:id="rId10"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="G6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId11"/>
@@ -2221,12 +2196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
